--- a/data/Question Type examples 9_20_24.xlsx
+++ b/data/Question Type examples 9_20_24.xlsx
@@ -99,7 +99,7 @@
     <t>question code</t>
   </si>
   <si>
-    <t>label</t>
+    <t>Label</t>
   </si>
   <si>
     <t>Question</t>
@@ -5131,7 +5131,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5288,13 +5288,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -5445,7 +5438,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5598,12 +5591,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5701,12 +5688,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6053,28 +6034,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6083,103 +6067,106 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6188,13 +6175,7 @@
     <xf numFmtId="0" fontId="42" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7106,7 +7087,7 @@
   <dimension ref="A1:S1107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8296296296296" defaultRowHeight="15"/>
